--- a/medicine/Sexualité et sexologie/Richard_Sipe/Richard_Sipe.xlsx
+++ b/medicine/Sexualité et sexologie/Richard_Sipe/Richard_Sipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aquinas Walter Richard Sipe (né le 11 décembre 1932 à Robbinsdale dans le Minnesota et mort le 8 août 2018 à La Jolla, un quartier de San Diego en Californie)[1],[2] est un ancien prêtre bénédictin, un sociologue et un psychothérapeute américain.
-Il est auteur de six livres sur les abus sexuels au sein de l'Église[3]. Pendant vingt-cinq ans, il conduit une étude ethnographique publiée en 1990 et affirme que 50 % des prêtres célibataires sont engagés dans des relations sexuelles. En 1970, il épouse une ancienne religieuse, Marianne. Ils ont un enfant[1],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aquinas Walter Richard Sipe (né le 11 décembre 1932 à Robbinsdale dans le Minnesota et mort le 8 août 2018 à La Jolla, un quartier de San Diego en Californie), est un ancien prêtre bénédictin, un sociologue et un psychothérapeute américain.
+Il est auteur de six livres sur les abus sexuels au sein de l'Église. Pendant vingt-cinq ans, il conduit une étude ethnographique publiée en 1990 et affirme que 50 % des prêtres célibataires sont engagés dans des relations sexuelles. En 1970, il épouse une ancienne religieuse, Marianne. Ils ont un enfant,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Sipe a été prêtre pendant 18 ans.
-En mai 2009, il dévoile un scandale d'abus sexuel dans le diocèse de Burlington (en)à Vermont aux États-Unis. Sur 102 prêtres, entre 1950 et 2002, 23 sont impliqués dans des cas de détournement de mineurs[5],[6].
-Selon le film, Spotlight, il déclare que 6 % des prêtres sont pédophiles[7],[8],[9],[10],[11].
+En mai 2009, il dévoile un scandale d'abus sexuel dans le diocèse de Burlington (en)à Vermont aux États-Unis. Sur 102 prêtres, entre 1950 et 2002, 23 sont impliqués dans des cas de détournement de mineurs,.
+Selon le film, Spotlight, il déclare que 6 % des prêtres sont pédophiles.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Celibacy in Crisis: A Secret World Revisited. Brunner-Routledge, New York and Hove 2003
 (en) A Secret World: sexuality and the search for celibacy Routledge, 1990.
